--- a/database_excel_files/AttendeeIdToEnquiryId.xlsx
+++ b/database_excel_files/AttendeeIdToEnquiryId.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
   <si>
     <t>attendeeId</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>enquiry2</t>
+  </si>
+  <si>
+    <t>0b850cc28ddc45bda7e958f06fc71d48</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>KUKU1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>KUKU1asdland</t>
+  </si>
+  <si>
+    <t>E1000</t>
+  </si>
+  <si>
+    <t>E100120</t>
   </si>
 </sst>
 </file>
@@ -361,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -408,6 +432,174 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
